--- a/任务4/code/temp.xlsx
+++ b/任务4/code/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,160 +584,460 @@
       <c r="AY1" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="AZ1" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9616.199993925151</v>
+        <v>10197.09244049847</v>
       </c>
       <c r="C2" t="n">
-        <v>9534.439902618229</v>
+        <v>10198.74968188271</v>
       </c>
       <c r="D2" t="n">
-        <v>9544.643941767848</v>
+        <v>10186.22837518483</v>
       </c>
       <c r="E2" t="n">
-        <v>9631.448448701836</v>
+        <v>10202.31347662933</v>
       </c>
       <c r="F2" t="n">
-        <v>9799.462262317538</v>
+        <v>10219.05804846764</v>
       </c>
       <c r="G2" t="n">
-        <v>9917.472547362744</v>
+        <v>10218.70693246379</v>
       </c>
       <c r="H2" t="n">
-        <v>9896.848699452206</v>
+        <v>10205.95762920998</v>
       </c>
       <c r="I2" t="n">
-        <v>9863.075328351259</v>
+        <v>10224.92148957759</v>
       </c>
       <c r="J2" t="n">
-        <v>9814.147607447281</v>
+        <v>10265.05195650525</v>
       </c>
       <c r="K2" t="n">
-        <v>9716.467821718343</v>
+        <v>10283.09480755627</v>
       </c>
       <c r="L2" t="n">
-        <v>9697.453124722615</v>
+        <v>10322.15440336458</v>
       </c>
       <c r="M2" t="n">
-        <v>9746.525738189815</v>
+        <v>10337.60128445275</v>
       </c>
       <c r="N2" t="n">
-        <v>9769.287895640693</v>
+        <v>10281.90578622855</v>
       </c>
       <c r="O2" t="n">
-        <v>9620.350927207246</v>
+        <v>10148.92115554392</v>
       </c>
       <c r="P2" t="n">
-        <v>9436.507306828051</v>
+        <v>9981.206182839871</v>
       </c>
       <c r="Q2" t="n">
-        <v>9232.865124609172</v>
+        <v>9829.716332981101</v>
       </c>
       <c r="R2" t="n">
-        <v>9033.814127410351</v>
+        <v>9659.38974701738</v>
       </c>
       <c r="S2" t="n">
-        <v>8933.766074043215</v>
+        <v>9492.697505924702</v>
       </c>
       <c r="T2" t="n">
-        <v>8843.926211756096</v>
+        <v>9341.695687695854</v>
       </c>
       <c r="U2" t="n">
-        <v>8779.84727951616</v>
+        <v>9223.640973726138</v>
       </c>
       <c r="V2" t="n">
-        <v>8720.17338196799</v>
+        <v>9081.139987796993</v>
       </c>
       <c r="W2" t="n">
-        <v>8641.511235547661</v>
+        <v>8930.83572656758</v>
       </c>
       <c r="X2" t="n">
-        <v>8533.003182645141</v>
+        <v>8791.158772541954</v>
       </c>
       <c r="Y2" t="n">
-        <v>8417.023747335374</v>
+        <v>8649.336480117439</v>
       </c>
       <c r="Z2" t="n">
-        <v>8253.286781646906</v>
+        <v>8476.892622150481</v>
       </c>
       <c r="AA2" t="n">
-        <v>8085.08521577701</v>
+        <v>8272.330738309622</v>
       </c>
       <c r="AB2" t="n">
-        <v>7974.377751303315</v>
+        <v>8041.630785294919</v>
       </c>
       <c r="AC2" t="n">
-        <v>7898.451040476411</v>
+        <v>7798.38010245353</v>
       </c>
       <c r="AD2" t="n">
-        <v>7775.410185020864</v>
+        <v>7570.636977730393</v>
       </c>
       <c r="AE2" t="n">
-        <v>7577.903575161099</v>
+        <v>7308.499653888344</v>
       </c>
       <c r="AF2" t="n">
-        <v>7328.496658385693</v>
+        <v>7029.775270024239</v>
       </c>
       <c r="AG2" t="n">
-        <v>6989.811338005661</v>
+        <v>6772.740832104682</v>
       </c>
       <c r="AH2" t="n">
-        <v>6658.457476709186</v>
+        <v>6551.918550356328</v>
       </c>
       <c r="AI2" t="n">
-        <v>6337.853911294937</v>
+        <v>6382.477682300805</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6191.964884775281</v>
+        <v>6282.582106125652</v>
       </c>
       <c r="AK2" t="n">
-        <v>6235.663592611252</v>
+        <v>6245.657256389855</v>
       </c>
       <c r="AL2" t="n">
-        <v>6171.243155922889</v>
+        <v>6246.185303474962</v>
       </c>
       <c r="AM2" t="n">
-        <v>6165.275099243819</v>
+        <v>6280.064532454907</v>
       </c>
       <c r="AN2" t="n">
-        <v>6509.46006009221</v>
+        <v>6537.319447686374</v>
       </c>
       <c r="AO2" t="n">
-        <v>7312.746784455478</v>
+        <v>7264.432960788011</v>
       </c>
       <c r="AP2" t="n">
-        <v>8169.815457514375</v>
+        <v>8281.785762676745</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8337.04252935797</v>
+        <v>8807.25021630533</v>
       </c>
       <c r="AR2" t="n">
-        <v>8524.446675247251</v>
+        <v>9152.321401793584</v>
       </c>
       <c r="AS2" t="n">
-        <v>8635.345324673503</v>
+        <v>9390.80171276044</v>
       </c>
       <c r="AT2" t="n">
-        <v>8875.733529389723</v>
+        <v>9686.018201671448</v>
       </c>
       <c r="AU2" t="n">
-        <v>9121.13491217792</v>
+        <v>9921.076194102727</v>
       </c>
       <c r="AV2" t="n">
-        <v>9293.108523161709</v>
+        <v>10113.56468934335</v>
       </c>
       <c r="AW2" t="n">
-        <v>9412.983253802731</v>
+        <v>10243.61178023197</v>
       </c>
       <c r="AX2" t="n">
-        <v>9474.456735293865</v>
+        <v>10329.34096988492</v>
       </c>
       <c r="AY2" t="n">
-        <v>9427.670952782779</v>
+        <v>10332.86128378563</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>10285.6127735354</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>10229.04478146479</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>10174.94218604982</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>10121.96538492799</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>10099.44783175465</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>10090.64367968924</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>10057.42264610086</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>10035.71194050431</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>10014.73897082422</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>9973.397415222227</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>9913.267786101102</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>9824.173554936666</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>9701.230040998942</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>9537.819933579229</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>9356.783410458303</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>9192.971481176093</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>9038.957551865875</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>8910.492640690654</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>8776.578173750788</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>8611.195735929608</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>8437.153090527654</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>8294.296084739863</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>8157.676782260537</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>8013.070604157149</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>7843.446135777831</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>7634.916444939375</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>7433.597382202148</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>7205.008440602719</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>6978.06562498331</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>6754.728908031284</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>6543.992874840199</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>6371.367247321903</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>6268.905974314212</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>6234.098020619452</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>6234.547867566645</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>6234.35694415301</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>6359.961534899175</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>6753.272920848131</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>7209.526002416014</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>7269.353031003475</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>7358.626726907492</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>7610.692186833024</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>8096.601036086231</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>8498.078582590819</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>8773.816976573467</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>8994.34921165645</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>9152.938175958245</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>9251.735419427156</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>9279.986265404001</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>9264.912142665535</v>
       </c>
     </row>
   </sheetData>
